--- a/excel/ch4/evaluation.xlsx
+++ b/excel/ch4/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\ch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867541CF-B4F9-4C78-9B05-665912961422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972D16C-B11D-4785-B886-89CFEF8982A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="2985" windowWidth="28800" windowHeight="15435" xr2:uid="{5CB1B533-56BD-4CDB-9DDA-F13F24B14DE1}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15435" xr2:uid="{5CB1B533-56BD-4CDB-9DDA-F13F24B14DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -590,15 +590,15 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.96491228070175439</v>
+        <v>0.95614035087719296</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>0.63636363636363635</v>
+        <v>0.6</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
